--- a/certificate_templates/certificate_map.xlsx
+++ b/certificate_templates/certificate_map.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tripadvisor-my.sharepoint.com/personal/sokeeffe_tripadvisor_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tripadvisor-my.sharepoint.com/personal/sokeeffe_tripadvisor_com/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFA2778D-17AB-4FFC-A5A9-0779EE2B7F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{C667CBAC-6853-4A57-AE3D-41013D71ABBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{319A982D-98AC-4751-9819-4052A2384011}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{9445C665-04F9-43BF-9069-E9087FD9D4C6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>template_name</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>swl_default.png</t>
+  </si>
+  <si>
+    <t>image_x</t>
+  </si>
+  <si>
+    <t>image_y</t>
   </si>
 </sst>
 </file>
@@ -438,27 +444,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2392DC9-B327-44B4-9763-40FBE6E9FE4C}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="13.26171875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7890625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7890625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.05078125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5234375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.15625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.20703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.47265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7890625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.05078125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5234375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.20703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,31 +474,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -498,31 +512,37 @@
         <v>12</v>
       </c>
       <c r="C2">
+        <v>1440</v>
+      </c>
+      <c r="D2">
+        <v>990</v>
+      </c>
+      <c r="E2">
         <v>550</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>370</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>220</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>250</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>550</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>550</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>800</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -530,27 +550,33 @@
         <v>13</v>
       </c>
       <c r="C3">
+        <v>1440</v>
+      </c>
+      <c r="D3">
+        <v>990</v>
+      </c>
+      <c r="E3">
         <v>550</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>370</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>220</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>250</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>550</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>550</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>800</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>250</v>
       </c>
     </row>

--- a/certificate_templates/certificate_map.xlsx
+++ b/certificate_templates/certificate_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tripadvisor-my.sharepoint.com/personal/sokeeffe_tripadvisor_com/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{C667CBAC-6853-4A57-AE3D-41013D71ABBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{319A982D-98AC-4751-9819-4052A2384011}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{C667CBAC-6853-4A57-AE3D-41013D71ABBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51B00769-4464-4010-82DA-92DD4544BBD6}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{9445C665-04F9-43BF-9069-E9087FD9D4C6}"/>
   </bookViews>
@@ -145,6 +145,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,7 +451,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -518,25 +522,25 @@
         <v>990</v>
       </c>
       <c r="E2">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="F2">
         <v>370</v>
       </c>
       <c r="G2">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="H2">
         <v>250</v>
       </c>
       <c r="I2">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="J2">
         <v>550</v>
       </c>
       <c r="K2">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="L2">
         <v>250</v>
@@ -556,25 +560,25 @@
         <v>990</v>
       </c>
       <c r="E3">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="F3">
         <v>370</v>
       </c>
       <c r="G3">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="H3">
         <v>250</v>
       </c>
       <c r="I3">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="J3">
         <v>550</v>
       </c>
       <c r="K3">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="L3">
         <v>250</v>
